--- a/SchedulingData/dynamic10/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>238.22</v>
+        <v>247.68</v>
       </c>
       <c r="D2" t="n">
-        <v>307.18</v>
+        <v>287.4</v>
       </c>
       <c r="E2" t="n">
-        <v>12.932</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>258.58</v>
+        <v>285</v>
       </c>
       <c r="D3" t="n">
-        <v>300.24</v>
+        <v>335.48</v>
       </c>
       <c r="E3" t="n">
-        <v>9.656000000000001</v>
+        <v>10.532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>307.18</v>
+        <v>225.06</v>
       </c>
       <c r="D4" t="n">
-        <v>378.72</v>
+        <v>298.82</v>
       </c>
       <c r="E4" t="n">
-        <v>9.907999999999999</v>
+        <v>11.268</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>213.84</v>
+        <v>222.76</v>
       </c>
       <c r="D5" t="n">
-        <v>253.14</v>
+        <v>262.72</v>
       </c>
       <c r="E5" t="n">
-        <v>15.676</v>
+        <v>15.768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>266.46</v>
+        <v>262.72</v>
       </c>
       <c r="D6" t="n">
-        <v>312.6</v>
+        <v>301.38</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5</v>
+        <v>13.032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>222.3</v>
+        <v>274.2</v>
       </c>
       <c r="D7" t="n">
-        <v>258.08</v>
+        <v>334.9</v>
       </c>
       <c r="E7" t="n">
-        <v>16.712</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>258.08</v>
+        <v>335.48</v>
       </c>
       <c r="D8" t="n">
-        <v>323.58</v>
+        <v>383.18</v>
       </c>
       <c r="E8" t="n">
-        <v>11.792</v>
+        <v>8.372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>253.14</v>
+        <v>334.9</v>
       </c>
       <c r="D9" t="n">
-        <v>306.18</v>
+        <v>383.66</v>
       </c>
       <c r="E9" t="n">
-        <v>12.972</v>
+        <v>11.844</v>
       </c>
     </row>
     <row r="10">
@@ -618,55 +618,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>323.58</v>
+        <v>298.82</v>
       </c>
       <c r="D10" t="n">
-        <v>377.34</v>
+        <v>354.56</v>
       </c>
       <c r="E10" t="n">
-        <v>9.036</v>
+        <v>8.304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>239.18</v>
+        <v>287.4</v>
       </c>
       <c r="D11" t="n">
-        <v>283.8</v>
+        <v>328.66</v>
       </c>
       <c r="E11" t="n">
-        <v>18.52</v>
+        <v>10.564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>306.18</v>
+        <v>231.04</v>
       </c>
       <c r="D12" t="n">
-        <v>341.68</v>
+        <v>285.34</v>
       </c>
       <c r="E12" t="n">
-        <v>10.552</v>
+        <v>12.136</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>300.24</v>
+        <v>383.66</v>
       </c>
       <c r="D13" t="n">
-        <v>372.16</v>
+        <v>423.28</v>
       </c>
       <c r="E13" t="n">
-        <v>7.064</v>
+        <v>9.512</v>
       </c>
     </row>
     <row r="14">
@@ -694,169 +694,169 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>312.6</v>
+        <v>328.66</v>
       </c>
       <c r="D14" t="n">
-        <v>363.96</v>
+        <v>385.48</v>
       </c>
       <c r="E14" t="n">
-        <v>8.484</v>
+        <v>7.972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>377.34</v>
+        <v>423.28</v>
       </c>
       <c r="D15" t="n">
-        <v>420.56</v>
+        <v>470.9</v>
       </c>
       <c r="E15" t="n">
-        <v>5.844</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>283.8</v>
+        <v>385.48</v>
       </c>
       <c r="D16" t="n">
-        <v>332.4</v>
+        <v>444.68</v>
       </c>
       <c r="E16" t="n">
-        <v>15.28</v>
+        <v>4.672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>363.96</v>
+        <v>383.18</v>
       </c>
       <c r="D17" t="n">
-        <v>412.92</v>
+        <v>410.38</v>
       </c>
       <c r="E17" t="n">
-        <v>5.208</v>
+        <v>6.292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>378.72</v>
+        <v>354.56</v>
       </c>
       <c r="D18" t="n">
-        <v>442.92</v>
+        <v>398.94</v>
       </c>
       <c r="E18" t="n">
-        <v>6.608</v>
+        <v>5.496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>332.4</v>
+        <v>398.94</v>
       </c>
       <c r="D19" t="n">
-        <v>375.22</v>
+        <v>456.98</v>
       </c>
       <c r="E19" t="n">
-        <v>12.628</v>
+        <v>2.792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>372.16</v>
+        <v>285.34</v>
       </c>
       <c r="D20" t="n">
-        <v>410.06</v>
+        <v>336.8</v>
       </c>
       <c r="E20" t="n">
-        <v>4.904</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>341.68</v>
+        <v>336.8</v>
       </c>
       <c r="D21" t="n">
-        <v>400.66</v>
+        <v>394.3</v>
       </c>
       <c r="E21" t="n">
-        <v>7.744</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>420.56</v>
+        <v>301.38</v>
       </c>
       <c r="D22" t="n">
-        <v>467.66</v>
+        <v>340.86</v>
       </c>
       <c r="E22" t="n">
-        <v>3.764</v>
+        <v>10.224</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>375.22</v>
+        <v>394.3</v>
       </c>
       <c r="D23" t="n">
-        <v>430.28</v>
+        <v>447.32</v>
       </c>
       <c r="E23" t="n">
-        <v>10.252</v>
+        <v>3.288</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>400.66</v>
+        <v>340.86</v>
       </c>
       <c r="D24" t="n">
-        <v>464.94</v>
+        <v>384.56</v>
       </c>
       <c r="E24" t="n">
-        <v>4.936</v>
+        <v>6.984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>464.94</v>
+        <v>444.68</v>
       </c>
       <c r="D25" t="n">
-        <v>504.56</v>
+        <v>480.28</v>
       </c>
       <c r="E25" t="n">
-        <v>2.604</v>
+        <v>2.252</v>
       </c>
     </row>
     <row r="26">
@@ -926,89 +926,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>410.06</v>
+        <v>470.9</v>
       </c>
       <c r="D26" t="n">
-        <v>482.06</v>
+        <v>513.3</v>
       </c>
       <c r="E26" t="n">
-        <v>2.784</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>412.92</v>
+        <v>384.56</v>
       </c>
       <c r="D27" t="n">
-        <v>467.22</v>
+        <v>441</v>
       </c>
       <c r="E27" t="n">
-        <v>1.908</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>467.22</v>
-      </c>
-      <c r="D28" t="n">
-        <v>545.3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond11</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>442.92</v>
-      </c>
-      <c r="D29" t="n">
-        <v>505.22</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.968</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>pond49</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>430.28</v>
-      </c>
-      <c r="D30" t="n">
-        <v>476.34</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7.756</v>
+        <v>3.96</v>
       </c>
     </row>
   </sheetData>
